--- a/data/trans_orig/P76_P_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5723ED1F-CE0A-4ACC-B318-40BC4D0412E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0807B0-35F1-4ACB-922C-02E6D49D2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37784D2C-E9DF-43AF-82FF-A6FF69E4D80B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBE77B2-1625-4861-BA81-4BB827DE7863}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="255">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -77,543 +77,555 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Trabajadores no cualificados</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Trabajadores no cualificados</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
@@ -632,37 +644,37 @@
     <t>38,31%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>13,76%</t>
@@ -671,61 +683,61 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>15,06%</t>
+    <t>14,92%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>13,16%</t>
@@ -734,16 +746,16 @@
     <t>12,3%</t>
   </si>
   <si>
-    <t>14,08%</t>
+    <t>14,06%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>2,84%</t>
@@ -752,37 +764,40 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF871CF4-256F-4958-AAFD-271B556CACEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2014FDC4-B5C2-4339-93E2-E9092233BEE8}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,13 +1606,13 @@
         <v>5243</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -1606,19 +1621,19 @@
         <v>15627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1627,13 +1642,13 @@
         <v>2085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1642,13 +1657,13 @@
         <v>3942</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1657,13 +1672,13 @@
         <v>6027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1693,13 @@
         <v>946742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>1198</v>
@@ -1693,13 +1708,13 @@
         <v>1283314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>2081</v>
@@ -1708,18 +1723,18 @@
         <v>2230056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1731,13 +1746,13 @@
         <v>2997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1746,13 +1761,13 @@
         <v>3692</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1761,13 +1776,13 @@
         <v>6688</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1797,13 @@
         <v>662171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>544</v>
@@ -1797,13 +1812,13 @@
         <v>581240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1166</v>
@@ -1812,13 +1827,13 @@
         <v>1243411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1848,13 @@
         <v>234271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -1848,13 +1863,13 @@
         <v>232605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>440</v>
@@ -1863,13 +1878,13 @@
         <v>466876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1899,13 @@
         <v>641185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>557</v>
@@ -1899,13 +1914,13 @@
         <v>595312</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>1177</v>
@@ -1914,13 +1929,13 @@
         <v>1236497</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1950,13 @@
         <v>288087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -1950,13 +1965,13 @@
         <v>228253</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>470</v>
@@ -1965,13 +1980,13 @@
         <v>516340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +2001,13 @@
         <v>76017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2001,13 +2016,13 @@
         <v>48088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -2016,19 +2031,19 @@
         <v>124106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2037,13 +2052,13 @@
         <v>11953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2052,13 +2067,13 @@
         <v>15653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2067,13 +2082,13 @@
         <v>27606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2103,13 @@
         <v>1916681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>1586</v>
@@ -2103,13 +2118,13 @@
         <v>1704843</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>3396</v>
@@ -2118,18 +2133,18 @@
         <v>3621524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2144,10 +2159,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2159,10 +2174,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2174,10 +2189,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2207,13 @@
         <v>69624</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -2207,13 +2222,13 @@
         <v>82944</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -2222,13 +2237,13 @@
         <v>152568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2258,13 @@
         <v>27276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2258,13 +2273,13 @@
         <v>38069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2273,13 +2288,13 @@
         <v>65346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2309,13 @@
         <v>174111</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>136</v>
@@ -2309,13 +2324,13 @@
         <v>149001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>294</v>
@@ -2324,13 +2339,13 @@
         <v>323112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2360,13 @@
         <v>133860</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -2360,13 +2375,13 @@
         <v>106514</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>213</v>
@@ -2375,13 +2390,13 @@
         <v>240374</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2411,13 @@
         <v>37521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2411,13 +2426,13 @@
         <v>44074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -2426,19 +2441,19 @@
         <v>81595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
         <v>26</v>
@@ -2447,13 +2462,13 @@
         <v>31351</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2462,13 +2477,13 @@
         <v>23489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -2477,13 +2492,13 @@
         <v>54840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2513,13 @@
         <v>473745</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" s="7">
         <v>399</v>
@@ -2513,13 +2528,13 @@
         <v>444091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M27" s="7">
         <v>830</v>
@@ -2528,13 +2543,13 @@
         <v>917836</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2566,13 @@
         <v>4032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2569,10 +2584,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2581,13 +2596,13 @@
         <v>9850</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2617,13 @@
         <v>1278593</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>1308</v>
@@ -2617,13 +2632,13 @@
         <v>1399517</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>2510</v>
@@ -2632,13 +2647,13 @@
         <v>2678109</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2668,13 @@
         <v>404012</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>439</v>
@@ -2668,13 +2683,13 @@
         <v>472232</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>823</v>
@@ -2683,13 +2698,13 @@
         <v>876244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2719,13 @@
         <v>1004957</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>931</v>
@@ -2719,13 +2734,13 @@
         <v>999627</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>1886</v>
@@ -2734,13 +2749,13 @@
         <v>2004584</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2770,13 @@
         <v>476262</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>376</v>
@@ -2770,13 +2785,13 @@
         <v>414566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>804</v>
@@ -2785,13 +2800,13 @@
         <v>890828</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2821,13 @@
         <v>123923</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>88</v>
@@ -2821,13 +2836,13 @@
         <v>97404</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>200</v>
@@ -2836,19 +2851,19 @@
         <v>221328</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7">
         <v>39</v>
@@ -2857,13 +2872,13 @@
         <v>45389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>36</v>
@@ -2872,13 +2887,13 @@
         <v>43084</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -2887,13 +2902,13 @@
         <v>88473</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2923,13 @@
         <v>3337168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7">
         <v>3183</v>
@@ -2923,13 +2938,13 @@
         <v>3432248</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M35" s="7">
         <v>6307</v>
@@ -2938,18 +2953,18 @@
         <v>6769416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_P_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0807B0-35F1-4ACB-922C-02E6D49D2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FEB680-034B-4827-A7E2-581B739725C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBE77B2-1625-4861-BA81-4BB827DE7863}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0858B111-CCB7-4C84-A28C-51D488DF56F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -77,715 +77,706 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Trabajadores no cualificados</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Trabajadores no cualificados</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -794,10 +785,10 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1212,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2014FDC4-B5C2-4339-93E2-E9092233BEE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DA3532-622C-4161-A251-FB258CAC3B59}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,16 +1615,16 @@
         <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1642,13 +1633,13 @@
         <v>2085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1657,13 +1648,13 @@
         <v>3942</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1672,13 +1663,13 @@
         <v>6027</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,13 +1684,13 @@
         <v>946742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>1198</v>
@@ -1708,13 +1699,13 @@
         <v>1283314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>2081</v>
@@ -1723,18 +1714,18 @@
         <v>2230056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1752,7 +1743,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1761,13 +1752,13 @@
         <v>3692</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1776,13 +1767,13 @@
         <v>6688</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1788,13 @@
         <v>662171</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>544</v>
@@ -1812,13 +1803,13 @@
         <v>581240</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1166</v>
@@ -1827,13 +1818,13 @@
         <v>1243411</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1839,13 @@
         <v>234271</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -1863,13 +1854,13 @@
         <v>232605</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>440</v>
@@ -1878,13 +1869,13 @@
         <v>466876</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1890,13 @@
         <v>641185</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>557</v>
@@ -1914,13 +1905,13 @@
         <v>595312</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>1177</v>
@@ -1929,13 +1920,13 @@
         <v>1236497</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,13 +1941,13 @@
         <v>288087</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -1965,13 +1956,13 @@
         <v>228253</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>470</v>
@@ -1980,13 +1971,13 @@
         <v>516340</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1992,13 @@
         <v>76017</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2016,13 +2007,13 @@
         <v>48088</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -2031,19 +2022,19 @@
         <v>124106</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2052,13 +2043,13 @@
         <v>11953</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2067,13 +2058,13 @@
         <v>15653</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2082,13 +2073,13 @@
         <v>27606</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2094,13 @@
         <v>1916681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>1586</v>
@@ -2118,13 +2109,13 @@
         <v>1704843</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>3396</v>
@@ -2133,18 +2124,18 @@
         <v>3621524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2159,10 +2150,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2174,10 +2165,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2189,10 +2180,10 @@
         <v>12</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2198,13 @@
         <v>69624</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -2222,13 +2213,13 @@
         <v>82944</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -2237,13 +2228,13 @@
         <v>152568</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2249,13 @@
         <v>27276</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2273,13 +2264,13 @@
         <v>38069</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2288,13 +2279,13 @@
         <v>65346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2300,13 @@
         <v>174111</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>136</v>
@@ -2324,13 +2315,13 @@
         <v>149001</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>294</v>
@@ -2339,13 +2330,13 @@
         <v>323112</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2351,13 @@
         <v>133860</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -2375,13 +2366,13 @@
         <v>106514</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>213</v>
@@ -2390,13 +2381,13 @@
         <v>240374</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2402,13 @@
         <v>37521</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2426,13 +2417,13 @@
         <v>44074</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -2441,19 +2432,19 @@
         <v>81595</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7">
         <v>26</v>
@@ -2462,13 +2453,13 @@
         <v>31351</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2477,13 +2468,13 @@
         <v>23489</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -2492,13 +2483,13 @@
         <v>54840</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2504,13 @@
         <v>473745</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>399</v>
@@ -2528,13 +2519,13 @@
         <v>444091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>830</v>
@@ -2543,13 +2534,13 @@
         <v>917836</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2557,13 @@
         <v>4032</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2584,10 +2575,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2596,13 +2587,13 @@
         <v>9850</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2608,13 @@
         <v>1278593</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>1308</v>
@@ -2632,13 +2623,13 @@
         <v>1399517</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>2510</v>
@@ -2647,13 +2638,13 @@
         <v>2678109</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2659,13 @@
         <v>404012</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>439</v>
@@ -2683,13 +2674,13 @@
         <v>472232</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>823</v>
@@ -2698,13 +2689,13 @@
         <v>876244</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2710,13 @@
         <v>1004957</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>931</v>
@@ -2734,13 +2725,13 @@
         <v>999627</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>1886</v>
@@ -2749,13 +2740,13 @@
         <v>2004584</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2761,13 @@
         <v>476262</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>376</v>
@@ -2785,13 +2776,13 @@
         <v>414566</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>804</v>
@@ -2800,13 +2791,13 @@
         <v>890828</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2812,13 @@
         <v>123923</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>88</v>
@@ -2836,13 +2827,13 @@
         <v>97404</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>200</v>
@@ -2851,19 +2842,19 @@
         <v>221328</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7">
         <v>39</v>
@@ -2872,13 +2863,13 @@
         <v>45389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>36</v>
@@ -2887,13 +2878,13 @@
         <v>43084</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -2902,13 +2893,13 @@
         <v>88473</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2914,13 @@
         <v>3337168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7">
         <v>3183</v>
@@ -2938,13 +2929,13 @@
         <v>3432248</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7">
         <v>6307</v>
@@ -2953,18 +2944,18 @@
         <v>6769416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
